--- a/LP GitHub Repos.xlsx
+++ b/LP GitHub Repos.xlsx
@@ -411,7 +411,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2008,37 +2008,33 @@
       </c>
       <c r="B40" s="5" t="n"/>
       <c r="C40" s="5" t="n"/>
-      <c r="D40" s="5" t="n"/>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Yes (Renovate &amp; Dependabot)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H40" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="n"/>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>${{ github.workflow }}-${{ github.ref }}</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2048,10 +2044,14 @@
       </c>
       <c r="B41" s="5" t="n"/>
       <c r="C41" s="5" t="n"/>
-      <c r="D41" s="5" t="n"/>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Yes (Dependabot)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
@@ -2061,24 +2061,12 @@
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H41" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I41" s="5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="n"/>
+      <c r="I41" s="5" t="n"/>
+      <c r="J41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -2424,7 +2412,11 @@
       </c>
       <c r="B51" s="5" t="n"/>
       <c r="C51" s="5" t="n"/>
-      <c r="D51" s="5" t="n"/>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
           <t>No</t>
@@ -2437,24 +2429,12 @@
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H51" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I51" s="5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J51" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="n"/>
+      <c r="I51" s="5" t="n"/>
+      <c r="J51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -2752,15 +2732,19 @@
       </c>
       <c r="B61" s="5" t="n"/>
       <c r="C61" s="5" t="n"/>
-      <c r="D61" s="5" t="n"/>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Yes (Renovate &amp; Dependabot)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
@@ -2768,21 +2752,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H61" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="H61" s="5" t="n"/>
       <c r="I61" s="5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J61" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>${{ github.workflow }}-${{ github.ref }}</t>
+        </is>
+      </c>
+      <c r="J61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -3128,10 +3104,14 @@
       </c>
       <c r="B71" s="5" t="n"/>
       <c r="C71" s="5" t="n"/>
-      <c r="D71" s="5" t="n"/>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>Yes (Renovate)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
@@ -3144,21 +3124,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H71" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="H71" s="5" t="n"/>
       <c r="I71" s="5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J71" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>${{ github.workflow }}-${{ github.ref }}</t>
+        </is>
+      </c>
+      <c r="J71" s="5" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -3248,10 +3220,26 @@
       </c>
       <c r="B74" s="9" t="n"/>
       <c r="C74" s="9" t="n"/>
-      <c r="D74" s="9" t="n"/>
-      <c r="E74" s="9" t="n"/>
-      <c r="F74" s="9" t="n"/>
-      <c r="G74" s="9" t="n"/>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F74" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="H74" s="9" t="n"/>
       <c r="I74" s="9" t="n"/>
       <c r="J74" s="9" t="n"/>
@@ -3311,6 +3299,122 @@
       <c r="H76" s="9" t="n"/>
       <c r="I76" s="9" t="n"/>
       <c r="J76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>adapt-contrib-articleBlockSlider</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr"/>
+      <c r="C77" s="0" t="inlineStr"/>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>adapt-contrib-mathJax</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr"/>
+      <c r="C78" s="0" t="inlineStr"/>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>adapt-contrib-aboutUs</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr"/>
+      <c r="C79" s="0" t="inlineStr"/>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>adapt-contrib-flipcard</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr"/>
+      <c r="C80" s="0" t="inlineStr"/>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>Yes (NPM)</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J76">

--- a/LP GitHub Repos.xlsx
+++ b/LP GitHub Repos.xlsx
@@ -2029,11 +2029,7 @@
         </is>
       </c>
       <c r="H40" s="5" t="n"/>
-      <c r="I40" s="5" t="inlineStr">
-        <is>
-          <t>${{ github.workflow }}-${{ github.ref }}</t>
-        </is>
-      </c>
+      <c r="I40" s="5" t="n"/>
       <c r="J40" s="5" t="n"/>
     </row>
     <row r="41">
@@ -2753,11 +2749,7 @@
         </is>
       </c>
       <c r="H61" s="5" t="n"/>
-      <c r="I61" s="5" t="inlineStr">
-        <is>
-          <t>${{ github.workflow }}-${{ github.ref }}</t>
-        </is>
-      </c>
+      <c r="I61" s="5" t="n"/>
       <c r="J61" s="5" t="n"/>
     </row>
     <row r="62">
@@ -3125,11 +3117,7 @@
         </is>
       </c>
       <c r="H71" s="5" t="n"/>
-      <c r="I71" s="5" t="inlineStr">
-        <is>
-          <t>${{ github.workflow }}-${{ github.ref }}</t>
-        </is>
-      </c>
+      <c r="I71" s="5" t="n"/>
       <c r="J71" s="5" t="n"/>
     </row>
     <row r="72">

--- a/LP GitHub Repos.xlsx
+++ b/LP GitHub Repos.xlsx
@@ -776,11 +776,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="8.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="27.433571428571426" customWidth="1" bestFit="1"/>
